--- a/_site/Data/SocialSupportCC.xlsx
+++ b/_site/Data/SocialSupportCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Question</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Source Link</t>
   </si>
   <si>
-    <t>Occurrence</t>
+    <t>Dates used</t>
   </si>
   <si>
     <t>People sometimes look to others for companionship, assistance, or other types of support.
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t xml:space="preserve">Developed by RAPID Team </t>
+  </si>
+  <si>
+    <t>08/04/2021-08/06/2021 09/15/2021-09/17/2021</t>
   </si>
   <si>
     <t>In a typical week prior to the COVID-19 pandemic 
@@ -471,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177050F3-616B-3741-BC3E-825DF1FCB6B9}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="88" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
@@ -484,7 +487,7 @@
     <col min="6" max="16384" width="10.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.100000000000001">
+    <row r="1" spans="1:5" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,10 +515,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="1"/>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="283.5">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -524,6 +530,9 @@
         <v>7</v>
       </c>
       <c r="D3" s="1"/>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="7"/>

--- a/_site/Data/SocialSupportCC.xlsx
+++ b/_site/Data/SocialSupportCC.xlsx
@@ -8,8 +8,8 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mi1zdx1ifhSLVMcoo+o8LIiFrjNAQ=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="SGTPE1BO6whiDOZm+xnlzP7DMY0/aC7ujt0ibxEREDc="/>
     </ext>
   </extLst>
 </workbook>
@@ -105,7 +105,7 @@
 </t>
   </si>
   <si>
-    <t>01/11/2023-01/18/2023</t>
+    <t>01/11/2023-01/18/2023 04/05/2023-04/13/2023 07/05/2023-07/12/2023</t>
   </si>
 </sst>
 </file>

--- a/_site/Data/SocialSupportCC.xlsx
+++ b/_site/Data/SocialSupportCC.xlsx
@@ -105,7 +105,7 @@
 </t>
   </si>
   <si>
-    <t>01/11/2023-01/18/2023 04/05/2023-04/13/2023 07/05/2023-07/12/2023</t>
+    <t>01/11/2023-01/18/2023 04/05/2023-04/13/2023 07/05/2023-07/12/2023 10/04/2023-10/11/2023</t>
   </si>
 </sst>
 </file>
